--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -104,9 +104,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -504,8 +504,8 @@
   <sheetPr/>
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -101,17 +105,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -134,23 +138,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -162,14 +151,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,6 +462,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -500,15 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
@@ -536,7 +530,7 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -597,40 +591,40 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -638,46 +632,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -685,46 +679,46 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -732,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -779,46 +773,46 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -826,46 +820,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -873,46 +867,46 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -920,46 +914,46 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -967,46 +961,46 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1014,46 +1008,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -1061,46 +1055,46 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -1108,48 +1102,49 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>EFT_INFO</t>
@@ -64,6 +59,27 @@
   </si>
   <si>
     <t>EFT_FINISH</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
   </si>
   <si>
     <t>Func1</t>
@@ -105,31 +121,379 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -137,33 +501,332 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -213,71 +876,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,14 +1158,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="3" width="9.375" customWidth="1"/>
@@ -530,347 +1194,319 @@
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:15">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
+    <row r="3" s="2" customFormat="1" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
+    <row r="4" s="2" customFormat="1" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+    <row r="5" s="2" customFormat="1" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
+    <row r="6" s="2" customFormat="1" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
+    <row r="7" s="2" customFormat="1" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
+    <row r="8" spans="1:15">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,9 +1542,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
+    <row r="9" spans="1:15">
+      <c r="A9" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -920,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -953,9 +1589,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
+    <row r="10" spans="1:15">
+      <c r="A10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -964,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1000,9 +1636,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
+    <row r="11" spans="1:15">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1014,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1047,9 +1683,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
+    <row r="12" spans="1:15">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1094,9 +1730,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
+    <row r="13" spans="1:15">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1138,13 +1774,300 @@
         <v>0</v>
       </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -123,12 +123,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -136,26 +136,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,30 +158,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +209,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -217,8 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +257,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,48 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +315,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,180 +387,120 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -503,34 +510,91 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +630,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -583,19 +691,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,175 +701,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1163,7 +1278,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1195,308 +1310,308 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="b">
+      <c r="B5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="b">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:15">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -1543,7 +1658,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B9">
@@ -1590,7 +1705,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B10">
@@ -1637,7 +1752,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B11">
@@ -1684,7 +1799,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B12">
@@ -1731,7 +1846,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -1778,7 +1893,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B14">
@@ -1825,7 +1940,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B15">
@@ -1872,7 +1987,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B16">
@@ -1919,7 +2034,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B17">
@@ -1966,7 +2081,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -2013,7 +2128,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B19">

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -123,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,7 +148,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +176,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -167,7 +229,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,36 +243,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +283,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,61 +296,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -315,37 +318,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,133 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,32 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,8 +628,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -657,18 +641,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,11 +685,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,152 +704,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1275,10 +1281,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1296,382 +1302,371 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="14" width="20.25" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.5" customWidth="1"/>
-    <col min="18" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.25" customWidth="1"/>
-    <col min="23" max="23" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="11.625" customWidth="1"/>
-    <col min="25" max="25" width="20.25" customWidth="1"/>
-    <col min="26" max="27" width="17.75" customWidth="1"/>
-    <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:15">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:15">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8" t="b">
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="b">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="8" t="b">
+      <c r="B5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8" t="b">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:15">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:15">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1705,7 +1700,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B10">
@@ -1715,13 +1710,13 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1752,7 +1747,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B11">
@@ -1762,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1799,7 +1794,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
@@ -1812,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1846,7 +1841,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -1893,7 +1888,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B14">
@@ -1940,7 +1935,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B15">
@@ -1987,7 +1982,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B16">
@@ -2034,7 +2029,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B17">
@@ -2081,7 +2076,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -2128,7 +2123,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B19">
@@ -2171,13 +2166,60 @@
         <v>0</v>
       </c>
       <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6 B7 C7:G7 H7:O7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -124,14 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,159 +152,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,194 +172,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -601,251 +271,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,58 +324,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1279,32 +665,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
-    <col min="10" max="10" width="27.75" customWidth="1"/>
-    <col min="11" max="11" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="14" width="20.25" customWidth="1"/>
+    <col min="13" max="14" width="20.1640625" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1445,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:15">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -1492,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:15">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -1539,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:15">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -1586,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:15">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1633,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:15">
+    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1652,7 +1038,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
@@ -1746,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
@@ -1793,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>27</v>
       </c>
@@ -1887,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
@@ -1934,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -1981,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
@@ -2028,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2075,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -2122,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -2169,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -2223,7 +1609,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/StateFunction.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -132,13 +132,17 @@
   </si>
   <si>
     <t>Func12</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -149,6 +153,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -325,13 +334,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -666,31 +678,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="3" width="9.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" customWidth="1"/>
+    <col min="10" max="10" width="27.6328125" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="13" max="14" width="20.1640625" customWidth="1"/>
+    <col min="13" max="14" width="20.1796875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -737,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -784,7 +796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
@@ -831,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -878,7 +890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
@@ -925,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
@@ -972,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1019,593 +1031,641 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O6 B7 C7:G7 H7:O7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:O8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
